--- a/data/trans_camb/P24_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,58</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>1,32</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,22</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,51</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,0</t>
+          <t>-0,74; 4,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,52</t>
+          <t>-0,49; 5,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,97</t>
+          <t>-1,56; 3,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,99</t>
+          <t>-0,92; 4,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,89</t>
+          <t>4,87; 12,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 6,98</t>
+          <t>0,64; 7,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,12</t>
+          <t>-2,69; 4,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 9,87</t>
+          <t>0,12; 7,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,61</t>
+          <t>0,36; 7,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,54</t>
+          <t>1,91; 9,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,68</t>
+          <t>0,48; 9,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,64</t>
+          <t>0,26; 8,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 3,43</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 5,14</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 4,65</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 6,74</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,74; 9,83</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 7,63</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>121,15%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>119,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>50,17%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>72,89%</t>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>35,96%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>47,68%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>52,84%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>30,54%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 131,35</t>
+          <t>-14,29; 125,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 146,32</t>
+          <t>-14,57; 133,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 104,75</t>
+          <t>-28,93; 94,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,73; 237,49</t>
+          <t>-17,01; 124,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 38,59</t>
+          <t>56,58; 222,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 69,2</t>
+          <t>4,03; 82,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 69,49</t>
+          <t>-19,5; 39,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,18; 96,14</t>
+          <t>0,64; 70,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 48,51</t>
+          <t>3,36; 70,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,54; 76,58</t>
+          <t>13,87; 97,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 64,15</t>
+          <t>2,19; 62,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,08; 115,46</t>
+          <t>0,63; 51,6</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-10,13; 43,96</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 67,56</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 59,84</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>13,15; 87,11</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>26,2; 89,7</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>10,26; 57,03</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 6,74</t>
+          <t>-0,85; 6,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 8,4</t>
+          <t>2,14; 8,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 8,5</t>
+          <t>0,51; 8,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 11,37</t>
+          <t>1,57; 9,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,17</t>
+          <t>-4,81; 4,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,57</t>
+          <t>-7,31; 4,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 6,85</t>
+          <t>-0,1; 7,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 17,38</t>
+          <t>0,95; 7,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,65</t>
+          <t>0,26; 7,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,04</t>
+          <t>6,45; 16,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,63</t>
+          <t>-6,27; 8,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 12,41</t>
+          <t>-7,38; 9,05</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 5,64</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 6,96</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 6,51</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,25; 11,59</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 4,48</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 4,96</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>101,27%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>119,39%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>-1,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>116,97%</t>
+          <t>47,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>38,42%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>65,32%</t>
+          <t>123,29%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>114,71%</t>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36,69%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>65,99%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>51,73%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>114,01%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 156,64</t>
+          <t>-20,02; 165,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,44; 214,46</t>
+          <t>29,44; 211,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 211,8</t>
+          <t>6,03; 194,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,48; 260,92</t>
+          <t>22,7; 210,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 82,56</t>
+          <t>-39,93; 55,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 102,04</t>
+          <t>-49,29; 55,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 92,16</t>
+          <t>-1,2; 100,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,34; 223,57</t>
+          <t>7,96; 104,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 94,41</t>
+          <t>1,14; 93,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,0; 116,13</t>
+          <t>59,68; 215,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,15; 106,68</t>
+          <t>-27,58; 45,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>61,14; 195,31</t>
+          <t>-30,93; 57,56</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 85,03</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>28,23; 113,38</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 104,69</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>63,62; 175,56</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-28,66; 32,59</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-28,9; 38,14</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>12,57</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,91</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12,76</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 22,86</t>
+          <t>0,04; 24,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 5,54</t>
+          <t>-3,97; 5,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 8,91</t>
+          <t>-2,34; 8,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>3,59; 32,13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 11,81</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 8,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 10,09</t>
+          <t>-8,29; 5,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-5,87; 7,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 10,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 22,26</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 12,21</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 5,56</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 8,03</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 12,88</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 5,5</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 7,39</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 23,49</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>138,83%</t>
+          <t>163,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>61,46%</t>
+          <t>62,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>279,68%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>117,04%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>46,6%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>15,85%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>38,27%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>36,49%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>37,77%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>165,33%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 938,79</t>
+          <t>-22,86; 1135,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,4; 272,44</t>
+          <t>-58,38; 228,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 416,67</t>
+          <t>-46,86; 437,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>27,1; 1459,68</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-44,61; 149,43</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 114,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 132,48</t>
+          <t>-58,56; 65,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-40,21; 104,82</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-31,18; 134,81</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25,22; 275,04</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-21,8; 208,67</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-32,29; 96,63</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-15,68; 135,76</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-24,6; 215,86</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-29,51; 98,54</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-15,41; 130,12</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>67,39; 390,24</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>8,74</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
           <t>3,51</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>7,01</t>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,44</t>
+          <t>0,37; 5,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,6</t>
+          <t>1,43; 5,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,11</t>
+          <t>0,39; 4,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,68</t>
+          <t>2,29; 7,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,95</t>
+          <t>1,11; 7,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,84</t>
+          <t>-0,13; 6,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,92</t>
+          <t>-0,91; 3,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,1</t>
+          <t>1,22; 5,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,82</t>
+          <t>1,38; 6,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,99</t>
+          <t>6,02; 11,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,73</t>
+          <t>-0,83; 6,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,11</t>
+          <t>0,09; 7,26</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 3,93</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 4,93</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 4,72</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 9,03</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 6,38</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 5,84</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>65,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>121,45%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>25,56%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>44,41%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>38,48%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>85,02%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>25,4%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,55; 123,49</t>
+          <t>4,67; 126,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,39; 140,53</t>
+          <t>22,37; 126,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,32; 122,64</t>
+          <t>6,59; 108,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>59,34; 207,54</t>
+          <t>38,8; 183,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 41,39</t>
+          <t>7,2; 94,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,24; 62,0</t>
+          <t>-2,07; 61,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,51; 61,88</t>
+          <t>-8,05; 39,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,97; 116,96</t>
+          <t>9,34; 63,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 51,45</t>
+          <t>10,77; 64,8</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,1; 69,39</t>
+          <t>49,42; 123,42</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,1; 66,28</t>
+          <t>-3,84; 36,85</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>60,32; 125,43</t>
+          <t>0,63; 42,69</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 53,36</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>22,74; 68,42</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 64,67</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>54,75; 125,15</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 47,48</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 42,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
